--- a/1_Clean_Data/Schaefer_2019_CP/CodeBook_Schaefer_2019_CP_Exp1_Clean.xlsx
+++ b/1_Clean_Data/Schaefer_2019_CP/CodeBook_Schaefer_2019_CP_Exp1_Clean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook_SALT_exp1_var_Info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Variable_name</t>
   </si>
@@ -83,6 +83,33 @@
     <t>left;right</t>
   </si>
   <si>
+    <t>Origin_Identity</t>
+  </si>
+  <si>
+    <t>Original type of identity task performed</t>
+  </si>
+  <si>
+    <t>Bekannter;Ich;Mutter;none</t>
+  </si>
+  <si>
+    <t>English_Identity</t>
+  </si>
+  <si>
+    <t>English type of identity task performed</t>
+  </si>
+  <si>
+    <t>Self;Acquaintance;Mother;None</t>
+  </si>
+  <si>
+    <t>Standarlized_Identity</t>
+  </si>
+  <si>
+    <t>Standarlized type of identity task performed</t>
+  </si>
+  <si>
+    <t>Self;Close;NonPerson</t>
+  </si>
+  <si>
     <t>Matching</t>
   </si>
   <si>
@@ -90,15 +117,6 @@
   </si>
   <si>
     <t>Matching;Nomatching</t>
-  </si>
-  <si>
-    <t>Identity</t>
-  </si>
-  <si>
-    <t>Type of identity task performed</t>
-  </si>
-  <si>
-    <t>Bekannter;Ich;Mutter;none</t>
   </si>
   <si>
     <t>RT_ms</t>
@@ -736,8 +754,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,16 +1080,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="27.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="35.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
@@ -1144,7 +1165,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -1158,7 +1179,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
@@ -1172,46 +1193,107 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
